--- a/results/comparaison/WM/azimuth/mean_raw_data.xlsx
+++ b/results/comparaison/WM/azimuth/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,8 +661,20 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -670,55 +682,55 @@
         <v>11.99165993935328</v>
       </c>
       <c r="C2">
+        <v>71.12187210862199</v>
+      </c>
+      <c r="D2">
         <v>47.12990951614947</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>136.2042017449525</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>96.39501366350524</v>
       </c>
-      <c r="F2">
+      <c r="G2">
+        <v>104.064020994558</v>
+      </c>
+      <c r="H2">
         <v>159.2307406843338</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>95.06766874001389</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>41.02051060937021</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>59.50879899094786</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>58.90464386292526</v>
-      </c>
-      <c r="K2">
-        <v>37.58298249688838</v>
-      </c>
-      <c r="L2">
-        <v>61.94088444227569</v>
       </c>
       <c r="M2">
         <v>121.600021889324</v>
       </c>
       <c r="N2">
+        <v>37.58298249688838</v>
+      </c>
+      <c r="O2">
+        <v>61.94088444227569</v>
+      </c>
+      <c r="P2">
         <v>41.47885298794465</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>31.52918940801825</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>111.3174720359433</v>
       </c>
-      <c r="Q2">
-        <v>55.90038024398217</v>
-      </c>
-      <c r="R2">
-        <v>114.042923808714</v>
-      </c>
       <c r="S2">
-        <v>53.13707349797723</v>
+        <v>66.23403846197911</v>
       </c>
       <c r="T2">
         <v>53.77688770857353</v>
@@ -742,259 +754,304 @@
         <v>45.86100085367381</v>
       </c>
       <c r="AA2">
-        <v>39.5020932349963</v>
+        <v>50.35814750221335</v>
       </c>
       <c r="AB2">
-        <v>55.43170107744422</v>
+        <v>55.01060295118734</v>
       </c>
       <c r="AC2">
-        <v>140.7730641514185</v>
+        <v>122.1373913332252</v>
       </c>
       <c r="AD2">
-        <v>151.5816176993056</v>
+        <v>92.9837901399824</v>
       </c>
       <c r="AE2">
+        <v>105.857752447926</v>
+      </c>
+      <c r="AF2">
+        <v>28.34791014392296</v>
+      </c>
+      <c r="AG2">
+        <v>134.2465316702264</v>
+      </c>
+      <c r="AH2">
+        <v>28.49870227032285</v>
+      </c>
+      <c r="AI2">
+        <v>40.46563162882755</v>
+      </c>
+      <c r="AJ2">
+        <v>55.3286286909405</v>
+      </c>
+      <c r="AK2">
         <v>124.0547222996723</v>
       </c>
-      <c r="AF2">
+      <c r="AL2">
+        <v>134.9647864057914</v>
+      </c>
+      <c r="AM2">
         <v>112.6940785782833</v>
       </c>
-      <c r="AG2">
-        <v>76.71640860130572</v>
-      </c>
-      <c r="AH2">
+      <c r="AN2">
         <v>109.1239974704739</v>
       </c>
-      <c r="AI2">
-        <v>53.2068601143926</v>
-      </c>
-      <c r="AJ2">
+      <c r="AO2">
         <v>121.6555662314383</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
+        <v>36.29929462880602</v>
+      </c>
+      <c r="AQ2">
+        <v>44.31743075189087</v>
+      </c>
+      <c r="AR2">
         <v>42.29485687285995</v>
       </c>
-      <c r="AL2">
-        <v>122.1373913332252</v>
-      </c>
-      <c r="AM2">
-        <v>108.5976588824894</v>
-      </c>
-      <c r="AN2">
-        <v>114.1391867336483</v>
-      </c>
-      <c r="AO2">
-        <v>124.1851385789921</v>
-      </c>
-      <c r="AP2">
-        <v>107.0680346674826</v>
-      </c>
-      <c r="AQ2">
-        <v>52.62357577782309</v>
-      </c>
-      <c r="AR2">
-        <v>45.17989302689594</v>
-      </c>
       <c r="AS2">
-        <v>47.3444372978615</v>
+        <v>95.43757969886251</v>
       </c>
       <c r="AT2">
-        <v>92.9837901399824</v>
+        <v>54.2755616377456</v>
       </c>
       <c r="AU2">
-        <v>28.34791014392296</v>
+        <v>37.92091806502095</v>
       </c>
       <c r="AV2">
-        <v>134.2465316702264</v>
+        <v>50.04111128740572</v>
       </c>
       <c r="AW2">
-        <v>28.49870227032285</v>
+        <v>135.5045100443407</v>
       </c>
       <c r="AX2">
-        <v>40.46563162882755</v>
+        <v>144.3086077182824</v>
       </c>
       <c r="AY2">
-        <v>114.5523569458892</v>
+        <v>140.451332106855</v>
       </c>
       <c r="AZ2">
-        <v>90.4479694206492</v>
+        <v>116.4896100550944</v>
       </c>
       <c r="BA2">
+        <v>147.6118289314466</v>
+      </c>
+      <c r="BB2">
+        <v>125.1162332596546</v>
+      </c>
+      <c r="BC2">
+        <v>100.8105367906369</v>
+      </c>
+      <c r="BD2">
+        <v>104.1974838020792</v>
+      </c>
+      <c r="BE2">
+        <v>103.8817912883232</v>
+      </c>
+      <c r="BF2">
+        <v>138.5208885483009</v>
+      </c>
+      <c r="BG2">
+        <v>109.6682070519876</v>
+      </c>
+      <c r="BH2">
+        <v>97.37624908080431</v>
+      </c>
+      <c r="BI2">
+        <v>92.4971670322608</v>
+      </c>
+      <c r="BJ2">
+        <v>104.0999979919848</v>
+      </c>
+      <c r="BK2">
+        <v>133.6113033645871</v>
+      </c>
+      <c r="BL2">
         <v>126.3648350872304</v>
       </c>
-      <c r="BB2">
-        <v>91.01018289344626</v>
-      </c>
-      <c r="BC2">
-        <v>74.12917101180921</v>
-      </c>
-      <c r="BD2">
-        <v>131.2023416971671</v>
-      </c>
-      <c r="BE2">
-        <v>88.01251561956101</v>
-      </c>
-      <c r="BF2">
-        <v>139.7026189142927</v>
-      </c>
-      <c r="BG2">
-        <v>99.02175571665754</v>
-      </c>
-      <c r="BH2">
-        <v>135.2884155006523</v>
-      </c>
-      <c r="BI2">
-        <v>130.2105941844926</v>
-      </c>
-      <c r="BJ2">
-        <v>112.6992853934923</v>
-      </c>
-      <c r="BK2">
-        <v>118.9887966780239</v>
-      </c>
-      <c r="BL2">
-        <v>106.6296386263177</v>
-      </c>
       <c r="BM2">
-        <v>107.0808427013407</v>
+        <v>108.4841998006493</v>
       </c>
       <c r="BN2">
-        <v>108.2658215267933</v>
+        <v>103.3053662189392</v>
       </c>
       <c r="BO2">
-        <v>106.6886053392517</v>
+        <v>128.6037081203085</v>
       </c>
       <c r="BP2">
-        <v>106.8716811193004</v>
+        <v>68.64208404018365</v>
       </c>
       <c r="BQ2">
-        <v>107.2325015815675</v>
+        <v>84.93434171050787</v>
       </c>
       <c r="BR2">
-        <v>101.7807413561873</v>
+        <v>126.375153539619</v>
       </c>
       <c r="BS2">
-        <v>130.802241301486</v>
+        <v>71.87129819914908</v>
       </c>
       <c r="BT2">
-        <v>146.6034037957504</v>
+        <v>88.18312856272689</v>
       </c>
       <c r="BU2">
-        <v>42.02736940151287</v>
+        <v>74.03937498969495</v>
       </c>
       <c r="BV2">
-        <v>153.665595914714</v>
+        <v>98.70435050999934</v>
       </c>
       <c r="BW2">
-        <v>101.2975936164205</v>
+        <v>58.23188413730708</v>
       </c>
       <c r="BX2">
-        <v>104.0165657402295</v>
+        <v>103.1229207968828</v>
       </c>
       <c r="BY2">
-        <v>135.1518953416413</v>
+        <v>126.67770862689</v>
       </c>
       <c r="BZ2">
-        <v>19.90783691937844</v>
+        <v>42.26865127418058</v>
       </c>
       <c r="CA2">
-        <v>64.16603021274882</v>
+        <v>135.0654583794019</v>
       </c>
       <c r="CB2">
-        <v>35.33403758469601</v>
+        <v>52.97027732655423</v>
       </c>
       <c r="CC2">
-        <v>123.1316862256432</v>
+        <v>30.11302501630328</v>
       </c>
       <c r="CD2">
-        <v>117.9626913602764</v>
+        <v>83.90707264926097</v>
       </c>
       <c r="CE2">
-        <v>80.98969884766743</v>
+        <v>44.78826938765496</v>
       </c>
       <c r="CF2">
-        <v>84.23608433823141</v>
+        <v>112.5323265298382</v>
       </c>
       <c r="CG2">
-        <v>156.1561187251691</v>
+        <v>87.21394983124148</v>
       </c>
       <c r="CH2">
-        <v>131.0182325838297</v>
+        <v>64.78906898108114</v>
       </c>
       <c r="CI2">
-        <v>109.7437945754014</v>
+        <v>130.0769459499952</v>
       </c>
       <c r="CJ2">
-        <v>47.81751570635299</v>
+        <v>87.26615588026173</v>
       </c>
       <c r="CK2">
-        <v>110.3428944038932</v>
+        <v>64.38558329136137</v>
       </c>
       <c r="CL2">
-        <v>67.14692127730963</v>
+        <v>47.8719917621545</v>
       </c>
       <c r="CM2">
-        <v>77.55269484040387</v>
+        <v>63.48756706280172</v>
       </c>
       <c r="CN2">
-        <v>41.48181218773518</v>
+        <v>77.94590710581808</v>
       </c>
       <c r="CO2">
-        <v>103.5927800265784</v>
+        <v>98.19940180792244</v>
       </c>
       <c r="CP2">
-        <v>125.1110161628961</v>
+        <v>55.54491326027274</v>
       </c>
       <c r="CQ2">
-        <v>62.27636634389793</v>
+        <v>48.45642372677973</v>
       </c>
       <c r="CR2">
-        <v>67.85861529442316</v>
+        <v>73.41965998591532</v>
       </c>
       <c r="CS2">
-        <v>73.41965998591532</v>
+        <v>65.16271397776083</v>
+      </c>
+      <c r="CT2">
+        <v>69.51488185096551</v>
+      </c>
+      <c r="CU2">
+        <v>87.50722633300079</v>
+      </c>
+      <c r="CV2">
+        <v>114.764234653282</v>
+      </c>
+      <c r="CW2">
+        <v>75.99287707445592</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
         <v>57.6940112554123</v>
       </c>
+      <c r="C3">
+        <v>68.07578434585125</v>
+      </c>
+      <c r="D3">
+        <v>97.29867644547988</v>
+      </c>
       <c r="E3">
+        <v>122.9654063598396</v>
+      </c>
+      <c r="F3">
         <v>93.15740037283848</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>101.6084299115152</v>
+      </c>
+      <c r="H3">
         <v>119.9700067556588</v>
       </c>
-      <c r="H3">
+      <c r="I3">
+        <v>125.845705458031</v>
+      </c>
+      <c r="J3">
         <v>36.16725420249775</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>62.76734818500642</v>
       </c>
-      <c r="K3">
-        <v>114.9504688613147</v>
+      <c r="L3">
+        <v>72.7805788079705</v>
       </c>
       <c r="M3">
         <v>81.37481470046524</v>
       </c>
       <c r="N3">
+        <v>114.9504688613147</v>
+      </c>
+      <c r="O3">
+        <v>65.7171587950636</v>
+      </c>
+      <c r="P3">
         <v>35.23832422341707</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>125.1760833911001</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>89.68588370663086</v>
       </c>
       <c r="S3">
-        <v>103.6807500773707</v>
+        <v>96.44678280568598</v>
+      </c>
+      <c r="T3">
+        <v>74.70105618953551</v>
+      </c>
+      <c r="U3">
+        <v>65.31875086609573</v>
+      </c>
+      <c r="V3">
+        <v>77.26187010551446</v>
       </c>
       <c r="W3">
         <v>53.67696771169583</v>
       </c>
+      <c r="X3">
+        <v>49.78390250377924</v>
+      </c>
       <c r="Y3">
         <v>37.10151484644107</v>
       </c>
@@ -1002,350 +1059,842 @@
         <v>40.7897841169307</v>
       </c>
       <c r="AA3">
-        <v>77.99114488348768</v>
+        <v>150.4365521262727</v>
       </c>
       <c r="AB3">
-        <v>50.58493715292576</v>
+        <v>61.01480605835958</v>
+      </c>
+      <c r="AC3">
+        <v>110.9218537823812</v>
+      </c>
+      <c r="AD3">
+        <v>78.83347602400477</v>
+      </c>
+      <c r="AF3">
+        <v>42.24956870732065</v>
+      </c>
+      <c r="AG3">
+        <v>136.9662459740908</v>
+      </c>
+      <c r="AH3">
+        <v>75.91995405768762</v>
+      </c>
+      <c r="AI3">
+        <v>46.15027733045237</v>
+      </c>
+      <c r="AJ3">
+        <v>53.51390291270173</v>
+      </c>
+      <c r="AL3">
+        <v>132.1763976510807</v>
+      </c>
+      <c r="AM3">
+        <v>106.736775996236</v>
+      </c>
+      <c r="AN3">
+        <v>116.9568450388465</v>
+      </c>
+      <c r="AO3">
+        <v>117.3185543992158</v>
+      </c>
+      <c r="AP3">
+        <v>75.14463434941075</v>
       </c>
       <c r="AQ3">
-        <v>51.9715191492328</v>
+        <v>42.75349222924525</v>
       </c>
       <c r="AR3">
-        <v>40.17592753523864</v>
+        <v>47.04531162331185</v>
       </c>
       <c r="AS3">
-        <v>45.59110864472115</v>
+        <v>110.4048644933847</v>
       </c>
       <c r="AT3">
-        <v>78.83347602400477</v>
+        <v>61.50913016865118</v>
       </c>
       <c r="AU3">
-        <v>42.24956870732065</v>
+        <v>77.86570122747861</v>
+      </c>
+      <c r="AV3">
+        <v>51.41113289251765</v>
       </c>
       <c r="AX3">
-        <v>46.15027733045237</v>
+        <v>140.5316224127128</v>
+      </c>
+      <c r="AY3">
+        <v>136.5926732109672</v>
+      </c>
+      <c r="AZ3">
+        <v>114.0896953824374</v>
+      </c>
+      <c r="BA3">
+        <v>135.7393542144696</v>
       </c>
       <c r="BB3">
-        <v>92.53309743368624</v>
+        <v>113.2125588134277</v>
       </c>
       <c r="BC3">
-        <v>79.6170700467913</v>
+        <v>102.2022283579592</v>
+      </c>
+      <c r="BD3">
+        <v>99.1800541931452</v>
+      </c>
+      <c r="BE3">
+        <v>115.6089141305455</v>
       </c>
       <c r="BF3">
-        <v>100.2849068839598</v>
+        <v>113.0809651455036</v>
+      </c>
+      <c r="BG3">
+        <v>108.9696118079674</v>
+      </c>
+      <c r="BH3">
+        <v>106.037527739196</v>
       </c>
       <c r="BI3">
-        <v>110.7911859136924</v>
+        <v>99.7601983729698</v>
       </c>
       <c r="BJ3">
-        <v>106.6703977861488</v>
+        <v>100.0697309889221</v>
       </c>
       <c r="BK3">
-        <v>103.9174370652341</v>
+        <v>116.7624000382674</v>
+      </c>
+      <c r="BM3">
+        <v>103.7984138006615</v>
+      </c>
+      <c r="BN3">
+        <v>105.4041412155526</v>
       </c>
       <c r="BO3">
-        <v>98.41737637059414</v>
+        <v>113.7613696914091</v>
       </c>
       <c r="BP3">
-        <v>110.9882967287227</v>
+        <v>110.4447346033256</v>
       </c>
       <c r="BQ3">
-        <v>104.0445571217415</v>
+        <v>91.78572248680062</v>
       </c>
       <c r="BR3">
-        <v>99.05969092822512</v>
+        <v>126.1524284858476</v>
       </c>
       <c r="BS3">
-        <v>126.4075684676252</v>
+        <v>104.7712758887273</v>
+      </c>
+      <c r="BT3">
+        <v>91.37104129234849</v>
       </c>
       <c r="BU3">
-        <v>95.63767459870884</v>
+        <v>78.42381051150235</v>
       </c>
       <c r="BV3">
-        <v>147.5762592071919</v>
+        <v>103.2246507392913</v>
+      </c>
+      <c r="BW3">
+        <v>106.5364530448705</v>
+      </c>
+      <c r="BX3">
+        <v>102.0083472850105</v>
+      </c>
+      <c r="BY3">
+        <v>121.2835679829926</v>
+      </c>
+      <c r="BZ3">
+        <v>73.35533123308925</v>
+      </c>
+      <c r="CA3">
+        <v>126.727233291451</v>
+      </c>
+      <c r="CB3">
+        <v>58.3408310044947</v>
+      </c>
+      <c r="CC3">
+        <v>39.77187611811316</v>
+      </c>
+      <c r="CD3">
+        <v>79.51519930419298</v>
+      </c>
+      <c r="CE3">
+        <v>67.20273424759718</v>
+      </c>
+      <c r="CF3">
+        <v>50.63397889348477</v>
       </c>
       <c r="CG3">
-        <v>147.2751934727577</v>
+        <v>59.73680001460703</v>
+      </c>
+      <c r="CH3">
+        <v>100.1878501276538</v>
+      </c>
+      <c r="CI3">
+        <v>141.7347143542043</v>
       </c>
       <c r="CK3">
-        <v>107.6172584615185</v>
+        <v>84.49659019524219</v>
+      </c>
+      <c r="CL3">
+        <v>64.95234614633267</v>
+      </c>
+      <c r="CM3">
+        <v>39.95748090778308</v>
       </c>
       <c r="CN3">
-        <v>35.36696253542748</v>
+        <v>72.78664398454835</v>
+      </c>
+      <c r="CO3">
+        <v>92.94875263182988</v>
+      </c>
+      <c r="CP3">
+        <v>105.6495794750768</v>
+      </c>
+      <c r="CQ3">
+        <v>22.27776299313624</v>
+      </c>
+      <c r="CR3">
+        <v>120.3489572392548</v>
+      </c>
+      <c r="CS3">
+        <v>62.20028432531285</v>
+      </c>
+      <c r="CT3">
+        <v>92.29061606672758</v>
+      </c>
+      <c r="CU3">
+        <v>109.9248093239348</v>
+      </c>
+      <c r="CV3">
+        <v>130.5442962676912</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
         <v>58.33500396035037</v>
       </c>
+      <c r="C4">
+        <v>74.90707918612145</v>
+      </c>
+      <c r="D4">
+        <v>90.62128474897092</v>
+      </c>
       <c r="E4">
+        <v>114.0784663393857</v>
+      </c>
+      <c r="F4">
         <v>84.16443991731028</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>133.0769375957306</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>113.1693403390268</v>
+      </c>
+      <c r="J4">
         <v>43.29472823316041</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>46.31659849618235</v>
       </c>
-      <c r="K4">
-        <v>97.0729016675036</v>
+      <c r="L4">
+        <v>73.48044707635647</v>
       </c>
       <c r="M4">
         <v>80.72826713701882</v>
       </c>
       <c r="N4">
+        <v>97.0729016675036</v>
+      </c>
+      <c r="O4">
+        <v>66.77171897506531</v>
+      </c>
+      <c r="P4">
         <v>41.44451341101185</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>111.6702542405593</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>88.96056426819054</v>
       </c>
       <c r="S4">
-        <v>101.4641217367132</v>
+        <v>76.4460009880376</v>
+      </c>
+      <c r="T4">
+        <v>77.86191379675483</v>
+      </c>
+      <c r="U4">
+        <v>71.4640779852412</v>
+      </c>
+      <c r="V4">
+        <v>85.00259774811705</v>
       </c>
       <c r="W4">
         <v>60.79846127937202</v>
       </c>
+      <c r="X4">
+        <v>57.2877619818414</v>
+      </c>
       <c r="Y4">
         <v>41.44517604370905</v>
       </c>
       <c r="Z4">
         <v>47.85121685323051</v>
       </c>
+      <c r="AA4">
+        <v>148.7941408412563</v>
+      </c>
       <c r="AB4">
-        <v>57.81787722152011</v>
+        <v>72.38539839411813</v>
+      </c>
+      <c r="AC4">
+        <v>121.5842111868721</v>
+      </c>
+      <c r="AD4">
+        <v>106.8487563251588</v>
+      </c>
+      <c r="AF4">
+        <v>72.33277208963852</v>
+      </c>
+      <c r="AG4">
+        <v>141.5862559604099</v>
       </c>
       <c r="AH4">
+        <v>112.8469172990766</v>
+      </c>
+      <c r="AI4">
+        <v>79.22421744308052</v>
+      </c>
+      <c r="AJ4">
+        <v>76.40777565715388</v>
+      </c>
+      <c r="AL4">
+        <v>135.1353786029654</v>
+      </c>
+      <c r="AM4">
+        <v>114.98021462438</v>
+      </c>
+      <c r="AN4">
         <v>123.3659505552565</v>
       </c>
-      <c r="AJ4">
+      <c r="AO4">
         <v>127.6897432254186</v>
       </c>
-      <c r="AK4">
+      <c r="AP4">
+        <v>99.9968506593794</v>
+      </c>
+      <c r="AQ4">
+        <v>45.81610093238003</v>
+      </c>
+      <c r="AR4">
         <v>70.82782745766814</v>
       </c>
-      <c r="AM4">
-        <v>121.5521800366562</v>
-      </c>
-      <c r="AQ4">
-        <v>56.44219732382116</v>
-      </c>
-      <c r="AR4">
-        <v>41.13981978304975</v>
-      </c>
-      <c r="AS4">
-        <v>47.1396054918932</v>
-      </c>
       <c r="AT4">
-        <v>106.8487563251588</v>
+        <v>76.10891507524948</v>
       </c>
       <c r="AU4">
-        <v>72.33277208963852</v>
-      </c>
-      <c r="AX4">
-        <v>79.22421744308052</v>
+        <v>88.86794351785012</v>
+      </c>
+      <c r="AV4">
+        <v>54.7751396844948</v>
+      </c>
+      <c r="AZ4">
+        <v>108.8815488635509</v>
+      </c>
+      <c r="BA4">
+        <v>138.0516977565908</v>
       </c>
       <c r="BB4">
-        <v>90.2398080584767</v>
+        <v>105.078015523311</v>
       </c>
       <c r="BC4">
-        <v>78.45538604022333</v>
+        <v>97.3264683138902</v>
+      </c>
+      <c r="BD4">
+        <v>96.70390444418985</v>
+      </c>
+      <c r="BE4">
+        <v>112.2538548400754</v>
+      </c>
+      <c r="BF4">
+        <v>112.0135628064634</v>
+      </c>
+      <c r="BG4">
+        <v>101.537241786152</v>
+      </c>
+      <c r="BH4">
+        <v>110.2048497677326</v>
       </c>
       <c r="BI4">
-        <v>102.8419463953206</v>
+        <v>94.35595844785968</v>
       </c>
       <c r="BJ4">
-        <v>102.0925773769504</v>
+        <v>97.11857895856927</v>
       </c>
       <c r="BK4">
-        <v>98.2130478344414</v>
+        <v>117.4454071910323</v>
+      </c>
+      <c r="BL4">
+        <v>110.4541023271143</v>
+      </c>
+      <c r="BM4">
+        <v>98.48410751403802</v>
+      </c>
+      <c r="BN4">
+        <v>99.99721581675335</v>
+      </c>
+      <c r="BO4">
+        <v>109.1597376989489</v>
       </c>
       <c r="BP4">
-        <v>106.205050465905</v>
-      </c>
-      <c r="BS4">
-        <v>119.5029249116655</v>
+        <v>106.3417696268597</v>
+      </c>
+      <c r="BQ4">
+        <v>89.81610373337517</v>
+      </c>
+      <c r="BR4">
+        <v>120.5651110428751</v>
+      </c>
+      <c r="BT4">
+        <v>86.69816867898277</v>
       </c>
       <c r="BU4">
-        <v>88.13453424037513</v>
+        <v>77.66336412689849</v>
       </c>
       <c r="BV4">
-        <v>138.607127079316</v>
+        <v>99.6256543813668</v>
+      </c>
+      <c r="BW4">
+        <v>96.82977935025229</v>
+      </c>
+      <c r="BX4">
+        <v>96.61743035465858</v>
+      </c>
+      <c r="BY4">
+        <v>109.4924555843996</v>
+      </c>
+      <c r="BZ4">
+        <v>66.44767103698102</v>
+      </c>
+      <c r="CA4">
+        <v>124.0249410497206</v>
+      </c>
+      <c r="CB4">
+        <v>58.24210787595967</v>
+      </c>
+      <c r="CC4">
+        <v>34.91312865021985</v>
+      </c>
+      <c r="CD4">
+        <v>72.89229700070312</v>
+      </c>
+      <c r="CE4">
+        <v>62.49477941069186</v>
       </c>
       <c r="CF4">
-        <v>31.82396762580964</v>
+        <v>55.33916975060045</v>
+      </c>
+      <c r="CG4">
+        <v>55.85689200791754</v>
       </c>
       <c r="CH4">
-        <v>119.2902027588084</v>
+        <v>99.2911779141704</v>
+      </c>
+      <c r="CI4">
+        <v>138.7042915879236</v>
       </c>
       <c r="CK4">
-        <v>101.110807849691</v>
+        <v>68.59813517818938</v>
+      </c>
+      <c r="CL4">
+        <v>47.54167764709492</v>
+      </c>
+      <c r="CM4">
+        <v>39.70972539483245</v>
       </c>
       <c r="CN4">
-        <v>36.44443076670981</v>
+        <v>50.00064341230819</v>
+      </c>
+      <c r="CO4">
+        <v>76.57804968656633</v>
+      </c>
+      <c r="CP4">
+        <v>113.3300072373716</v>
+      </c>
+      <c r="CQ4">
+        <v>23.64182254036532</v>
+      </c>
+      <c r="CR4">
+        <v>92.06528630523096</v>
+      </c>
+      <c r="CS4">
+        <v>57.09977479350687</v>
+      </c>
+      <c r="CT4">
+        <v>64.48716713471444</v>
+      </c>
+      <c r="CU4">
+        <v>42.20147282594611</v>
+      </c>
+      <c r="CV4">
+        <v>116.9466080461962</v>
+      </c>
+      <c r="CW4">
+        <v>87.26450030911352</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>22.80241393202761</v>
       </c>
+      <c r="C5">
+        <v>79.75169087240189</v>
+      </c>
       <c r="D5">
+        <v>99.636591906505</v>
+      </c>
+      <c r="E5">
         <v>116.8164115324033</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>79.98837816505916</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>133.7666685165777</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <v>128.4635597122023</v>
+      </c>
+      <c r="J5">
         <v>35.19361092553684</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>102.2940341457914</v>
       </c>
-      <c r="K5">
-        <v>92.9530209530264</v>
+      <c r="L5">
+        <v>81.24575019677212</v>
       </c>
       <c r="M5">
         <v>114.6949385567267</v>
       </c>
       <c r="N5">
+        <v>92.9530209530264</v>
+      </c>
+      <c r="O5">
+        <v>72.12197338026577</v>
+      </c>
+      <c r="P5">
         <v>37.81602364334207</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>111.9242144828463</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>83.5709521521308</v>
       </c>
       <c r="S5">
-        <v>111.3302133510819</v>
+        <v>102.2915334598804</v>
+      </c>
+      <c r="T5">
+        <v>68.89320550634937</v>
+      </c>
+      <c r="U5">
+        <v>73.35801218314242</v>
+      </c>
+      <c r="V5">
+        <v>90.20973465627016</v>
       </c>
       <c r="W5">
         <v>58.09643803654769</v>
       </c>
+      <c r="X5">
+        <v>52.34104122340853</v>
+      </c>
       <c r="Y5">
         <v>33.0970704839354</v>
       </c>
       <c r="Z5">
         <v>49.56082182768221</v>
       </c>
+      <c r="AA5">
+        <v>152.7595733951624</v>
+      </c>
       <c r="AB5">
-        <v>54.30027448781903</v>
+        <v>61.2307954275102</v>
+      </c>
+      <c r="AC5">
+        <v>119.0557678452725</v>
+      </c>
+      <c r="AD5">
+        <v>64.19081190669075</v>
+      </c>
+      <c r="AF5">
+        <v>34.82216867322556</v>
+      </c>
+      <c r="AG5">
+        <v>146.1689825998563</v>
+      </c>
+      <c r="AH5">
+        <v>60.17107077442918</v>
+      </c>
+      <c r="AI5">
+        <v>47.48690786811034</v>
+      </c>
+      <c r="AJ5">
+        <v>55.24304288731221</v>
+      </c>
+      <c r="AL5">
+        <v>136.2806730844718</v>
+      </c>
+      <c r="AM5">
+        <v>115.0015725994164</v>
+      </c>
+      <c r="AN5">
+        <v>121.2245494640009</v>
+      </c>
+      <c r="AO5">
+        <v>121.5112275909317</v>
+      </c>
+      <c r="AP5">
+        <v>55.9913737357065</v>
       </c>
       <c r="AQ5">
-        <v>53.6132027216104</v>
+        <v>44.40373167848163</v>
       </c>
       <c r="AR5">
-        <v>43.70022996272068</v>
+        <v>50.48315503357101</v>
       </c>
       <c r="AS5">
-        <v>45.55927691196159</v>
+        <v>118.8007724620917</v>
       </c>
       <c r="AT5">
-        <v>64.19081190669075</v>
+        <v>67.63133823219185</v>
       </c>
       <c r="AU5">
-        <v>34.82216867322556</v>
-      </c>
-      <c r="AX5">
-        <v>47.48690786811034</v>
+        <v>69.40518423726351</v>
+      </c>
+      <c r="AV5">
+        <v>50.82556300823693</v>
+      </c>
+      <c r="AY5">
+        <v>140.834006798595</v>
+      </c>
+      <c r="AZ5">
+        <v>112.581219850277</v>
+      </c>
+      <c r="BA5">
+        <v>151.5261179597204</v>
       </c>
       <c r="BB5">
-        <v>94.96100015463836</v>
+        <v>125.8336308612964</v>
       </c>
       <c r="BC5">
-        <v>79.39398778615909</v>
+        <v>100.1363544034972</v>
+      </c>
+      <c r="BD5">
+        <v>99.55845254159306</v>
       </c>
       <c r="BE5">
-        <v>89.68977484542327</v>
+        <v>118.3279363892248</v>
+      </c>
+      <c r="BF5">
+        <v>125.605841898491</v>
+      </c>
+      <c r="BG5">
+        <v>107.8081735886375</v>
+      </c>
+      <c r="BH5">
+        <v>129.9348006137367</v>
       </c>
       <c r="BI5">
-        <v>125.3039641635281</v>
+        <v>95.93410112163184</v>
+      </c>
+      <c r="BJ5">
+        <v>101.8213647408726</v>
       </c>
       <c r="BK5">
-        <v>119.8220755499585</v>
+        <v>134.5474624769724</v>
+      </c>
+      <c r="BM5">
+        <v>102.3441195591312</v>
+      </c>
+      <c r="BN5">
+        <v>109.3629260784529</v>
+      </c>
+      <c r="BO5">
+        <v>123.6297540391214</v>
       </c>
       <c r="BP5">
-        <v>111.4586059887143</v>
-      </c>
-      <c r="BS5">
-        <v>124.8227467125068</v>
+        <v>118.9096036604754</v>
+      </c>
+      <c r="BQ5">
+        <v>89.45895704369536</v>
+      </c>
+      <c r="BR5">
+        <v>124.631820799532</v>
+      </c>
+      <c r="BT5">
+        <v>94.88397850649608</v>
       </c>
       <c r="BU5">
-        <v>83.01596490135744</v>
+        <v>80.82548909473385</v>
       </c>
       <c r="BV5">
-        <v>147.9082953746482</v>
+        <v>102.0672952021907</v>
+      </c>
+      <c r="BW5">
+        <v>106.5472482986144</v>
+      </c>
+      <c r="BX5">
+        <v>103.274127655144</v>
+      </c>
+      <c r="BY5">
+        <v>114.5168012774684</v>
       </c>
       <c r="BZ5">
-        <v>97.14759291571164</v>
+        <v>63.61447620424178</v>
+      </c>
+      <c r="CA5">
+        <v>128.6412258988496</v>
+      </c>
+      <c r="CB5">
+        <v>45.84756512526803</v>
       </c>
       <c r="CC5">
-        <v>127.0862518120592</v>
+        <v>40.30229143168918</v>
+      </c>
+      <c r="CD5">
+        <v>68.17499982066563</v>
+      </c>
+      <c r="CE5">
+        <v>70.98095700286306</v>
+      </c>
+      <c r="CF5">
+        <v>48.71745624021646</v>
+      </c>
+      <c r="CG5">
+        <v>71.18681540925006</v>
       </c>
       <c r="CH5">
-        <v>124.5945755466844</v>
+        <v>104.0997088406008</v>
+      </c>
+      <c r="CI5">
+        <v>159.3074368181447</v>
       </c>
       <c r="CK5">
-        <v>106.3191409905746</v>
+        <v>81.79839657005697</v>
+      </c>
+      <c r="CL5">
+        <v>71.38896508400475</v>
+      </c>
+      <c r="CM5">
+        <v>39.8216669321284</v>
+      </c>
+      <c r="CN5">
+        <v>61.29791111006607</v>
+      </c>
+      <c r="CO5">
+        <v>82.53099972272891</v>
       </c>
       <c r="CP5">
-        <v>137.3740602747967</v>
+        <v>127.1568920998492</v>
+      </c>
+      <c r="CQ5">
+        <v>18.87654015390509</v>
+      </c>
+      <c r="CR5">
+        <v>128.2189975808673</v>
       </c>
       <c r="CS5">
-        <v>128.2189975808673</v>
+        <v>67.92915799442973</v>
+      </c>
+      <c r="CT5">
+        <v>86.74087321907962</v>
+      </c>
+      <c r="CU5">
+        <v>107.9170696188094</v>
+      </c>
+      <c r="CV5">
+        <v>127.6383190740519</v>
+      </c>
+      <c r="CW5">
+        <v>93.97304921713244</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
         <v>31.92722293068853</v>
       </c>
+      <c r="C6">
+        <v>78.18924742835377</v>
+      </c>
+      <c r="D6">
+        <v>81.78130977328907</v>
+      </c>
       <c r="E6">
+        <v>124.0229360753604</v>
+      </c>
+      <c r="F6">
         <v>55.83994873003303</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>142.6593847633456</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <v>120.8561443784772</v>
+      </c>
+      <c r="J6">
         <v>42.17188787268056</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>87.50913210044075</v>
       </c>
-      <c r="K6">
-        <v>86.77891064888662</v>
+      <c r="L6">
+        <v>75.8431316970467</v>
       </c>
       <c r="M6">
         <v>96.1710837485942</v>
       </c>
       <c r="N6">
+        <v>86.77891064888662</v>
+      </c>
+      <c r="O6">
+        <v>72.38329366802951</v>
+      </c>
+      <c r="P6">
         <v>41.87537085694543</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
+        <v>107.2147799914342</v>
+      </c>
+      <c r="R6">
         <v>65.38293005946149</v>
       </c>
       <c r="S6">
-        <v>99.03211565876531</v>
+        <v>99.93193291538304</v>
+      </c>
+      <c r="T6">
+        <v>79.10226904753443</v>
+      </c>
+      <c r="U6">
+        <v>77.42890829076219</v>
+      </c>
+      <c r="V6">
+        <v>93.26140567951572</v>
       </c>
       <c r="W6">
         <v>53.82157850132118</v>
       </c>
+      <c r="X6">
+        <v>62.85582086100278</v>
+      </c>
       <c r="Y6">
         <v>40.11788348823187</v>
       </c>
@@ -1353,204 +1902,513 @@
         <v>46.01314120477605</v>
       </c>
       <c r="AA6">
-        <v>95.03800550716169</v>
+        <v>148.4675391747037</v>
       </c>
       <c r="AB6">
-        <v>55.14341707512094</v>
+        <v>61.92601439969867</v>
+      </c>
+      <c r="AC6">
+        <v>113.2802659694666</v>
+      </c>
+      <c r="AD6">
+        <v>50.26355927478827</v>
+      </c>
+      <c r="AF6">
+        <v>37.90344138909249</v>
+      </c>
+      <c r="AG6">
+        <v>132.2770633675125</v>
+      </c>
+      <c r="AH6">
+        <v>39.63206310678082</v>
+      </c>
+      <c r="AI6">
+        <v>58.5431740513598</v>
+      </c>
+      <c r="AJ6">
+        <v>54.78594253328326</v>
+      </c>
+      <c r="AK6">
+        <v>140.4418535271619</v>
+      </c>
+      <c r="AL6">
+        <v>134.6751108402338</v>
+      </c>
+      <c r="AM6">
+        <v>118.1654867656354</v>
+      </c>
+      <c r="AN6">
+        <v>116.7203330019118</v>
+      </c>
+      <c r="AO6">
+        <v>120.3187605887719</v>
+      </c>
+      <c r="AP6">
+        <v>126.7281851165504</v>
       </c>
       <c r="AQ6">
-        <v>54.63285325672084</v>
+        <v>49.49383354635454</v>
       </c>
       <c r="AR6">
-        <v>39.39079449819083</v>
+        <v>48.4939004118358</v>
       </c>
       <c r="AS6">
-        <v>47.87187280859893</v>
+        <v>108.5574137357164</v>
       </c>
       <c r="AT6">
-        <v>50.26355927478827</v>
+        <v>58.76624669304775</v>
       </c>
       <c r="AU6">
-        <v>37.90344138909249</v>
+        <v>62.79752233824898</v>
+      </c>
+      <c r="AV6">
+        <v>52.64564258932489</v>
+      </c>
+      <c r="AW6">
+        <v>148.7651352684815</v>
       </c>
       <c r="AX6">
-        <v>58.5431740513598</v>
+        <v>143.1803185014515</v>
+      </c>
+      <c r="AY6">
+        <v>131.8192167937077</v>
       </c>
       <c r="AZ6">
-        <v>87.88639029570777</v>
+        <v>102.3735039671202</v>
+      </c>
+      <c r="BA6">
+        <v>136.3098707521549</v>
       </c>
       <c r="BB6">
-        <v>89.88348215765478</v>
+        <v>107.8623991137743</v>
+      </c>
+      <c r="BC6">
+        <v>90.28831113328236</v>
+      </c>
+      <c r="BD6">
+        <v>88.1401725895243</v>
       </c>
       <c r="BE6">
-        <v>77.7028459548077</v>
+        <v>103.7974967739568</v>
+      </c>
+      <c r="BF6">
+        <v>106.0424284695961</v>
+      </c>
+      <c r="BG6">
+        <v>97.52065119608352</v>
+      </c>
+      <c r="BH6">
+        <v>106.980318728247</v>
       </c>
       <c r="BI6">
-        <v>106.6058350479749</v>
+        <v>87.49941531573465</v>
       </c>
       <c r="BJ6">
-        <v>93.63384060318393</v>
+        <v>90.31305849547353</v>
       </c>
       <c r="BK6">
-        <v>101.0453768539818</v>
+        <v>114.0414843699273</v>
+      </c>
+      <c r="BL6">
+        <v>114.8445829033678</v>
+      </c>
+      <c r="BM6">
+        <v>91.37007983791852</v>
+      </c>
+      <c r="BN6">
+        <v>92.14112809614144</v>
+      </c>
+      <c r="BO6">
+        <v>109.387918295805</v>
       </c>
       <c r="BP6">
-        <v>100.4501265337208</v>
+        <v>106.848834403929</v>
+      </c>
+      <c r="BQ6">
+        <v>80.28103466222217</v>
       </c>
       <c r="BR6">
-        <v>87.57709160329736</v>
+        <v>111.3113336328548</v>
       </c>
       <c r="BS6">
-        <v>112.8910508025975</v>
+        <v>91.54872089651906</v>
+      </c>
+      <c r="BT6">
+        <v>82.69052068531153</v>
       </c>
       <c r="BU6">
-        <v>74.73915993510961</v>
+        <v>65.33409653970764</v>
       </c>
       <c r="BV6">
-        <v>139.1167581725305</v>
+        <v>94.2306816593878</v>
+      </c>
+      <c r="BW6">
+        <v>96.44321473071652</v>
+      </c>
+      <c r="BX6">
+        <v>91.14574329128104</v>
+      </c>
+      <c r="BY6">
+        <v>96.56776716666729</v>
       </c>
       <c r="BZ6">
-        <v>107.7876289885249</v>
+        <v>67.35909814616286</v>
       </c>
       <c r="CA6">
-        <v>88.25640349462483</v>
+        <v>120.785521199162</v>
+      </c>
+      <c r="CB6">
+        <v>55.22456611290443</v>
       </c>
       <c r="CC6">
-        <v>125.7356350832656</v>
+        <v>36.50518514038711</v>
+      </c>
+      <c r="CD6">
+        <v>54.88340065954429</v>
+      </c>
+      <c r="CE6">
+        <v>47.22000961064981</v>
       </c>
       <c r="CF6">
-        <v>65.33160112431968</v>
+        <v>36.36716363100518</v>
       </c>
       <c r="CG6">
-        <v>150.8592309267883</v>
+        <v>53.01972605426715</v>
       </c>
       <c r="CH6">
-        <v>130.6975889583444</v>
+        <v>94.74611967132728</v>
+      </c>
+      <c r="CI6">
+        <v>146.848367052061</v>
       </c>
       <c r="CK6">
-        <v>93.06711354566774</v>
+        <v>61.53959248565835</v>
+      </c>
+      <c r="CL6">
+        <v>50.10040543105754</v>
+      </c>
+      <c r="CM6">
+        <v>36.79226322929627</v>
       </c>
       <c r="CN6">
-        <v>25.07388126729873</v>
+        <v>66.39215921071654</v>
+      </c>
+      <c r="CO6">
+        <v>88.46666410317472</v>
       </c>
       <c r="CP6">
-        <v>135.6631320044155</v>
+        <v>62.76357549295487</v>
+      </c>
+      <c r="CQ6">
+        <v>36.7004871749586</v>
       </c>
       <c r="CR6">
-        <v>97.80923431008613</v>
+        <v>131.751956630105</v>
       </c>
       <c r="CS6">
-        <v>131.751956630105</v>
+        <v>55.44756117936379</v>
+      </c>
+      <c r="CT6">
+        <v>66.45745912129796</v>
+      </c>
+      <c r="CU6">
+        <v>90.80398184464065</v>
+      </c>
+      <c r="CV6">
+        <v>137.6530544814017</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
         <v>87.86160222741799</v>
       </c>
+      <c r="C7">
+        <v>91.00087133692564</v>
+      </c>
+      <c r="D7">
+        <v>93.62410923927348</v>
+      </c>
       <c r="E7">
+        <v>127.2791508863519</v>
+      </c>
+      <c r="F7">
         <v>109.1727355817626</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>142.505146972883</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <v>123.1114963964166</v>
+      </c>
+      <c r="J7">
         <v>54.85527070880343</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>132.9225848930605</v>
       </c>
-      <c r="K7">
-        <v>120.4847715455685</v>
+      <c r="L7">
+        <v>76.15249078695976</v>
       </c>
       <c r="M7">
         <v>121.9384886522755</v>
       </c>
       <c r="N7">
+        <v>120.4847715455685</v>
+      </c>
+      <c r="O7">
+        <v>62.72843165710366</v>
+      </c>
+      <c r="P7">
         <v>41.77045418067645</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>129.8194425917287</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>95.46330223183818</v>
       </c>
       <c r="S7">
-        <v>117.8821800029522</v>
+        <v>113.4989910660946</v>
+      </c>
+      <c r="T7">
+        <v>100.3350143939392</v>
+      </c>
+      <c r="U7">
+        <v>72.57826775283841</v>
+      </c>
+      <c r="V7">
+        <v>90.28329478033277</v>
       </c>
       <c r="W7">
         <v>63.51515730009147</v>
       </c>
+      <c r="X7">
+        <v>48.56592275264743</v>
+      </c>
       <c r="Y7">
         <v>56.64156327233325</v>
       </c>
       <c r="Z7">
         <v>71.40726488769535</v>
       </c>
+      <c r="AA7">
+        <v>150.3142416459092</v>
+      </c>
       <c r="AB7">
-        <v>46.82705200382486</v>
+        <v>54.93645289478371</v>
+      </c>
+      <c r="AC7">
+        <v>110.2902242681187</v>
+      </c>
+      <c r="AD7">
+        <v>97.80048258484121</v>
+      </c>
+      <c r="AE7">
+        <v>36.52729842505104</v>
+      </c>
+      <c r="AF7">
+        <v>85.25062908765818</v>
+      </c>
+      <c r="AG7">
+        <v>140.8264995282033</v>
+      </c>
+      <c r="AH7">
+        <v>89.06649611451417</v>
+      </c>
+      <c r="AI7">
+        <v>61.37394832239731</v>
+      </c>
+      <c r="AJ7">
+        <v>54.64370800502528</v>
       </c>
       <c r="AK7">
+        <v>142.2265666639565</v>
+      </c>
+      <c r="AL7">
+        <v>129.8942869602215</v>
+      </c>
+      <c r="AM7">
+        <v>111.6103591688382</v>
+      </c>
+      <c r="AN7">
+        <v>114.6484489720982</v>
+      </c>
+      <c r="AO7">
+        <v>122.8316209010555</v>
+      </c>
+      <c r="AP7">
+        <v>132.4700768088229</v>
+      </c>
+      <c r="AQ7">
+        <v>49.81242611513017</v>
+      </c>
+      <c r="AR7">
         <v>45.96951916438907</v>
       </c>
-      <c r="AQ7">
-        <v>44.88647947245857</v>
-      </c>
-      <c r="AR7">
-        <v>34.51813642835247</v>
-      </c>
       <c r="AS7">
-        <v>37.83631749433174</v>
+        <v>117.6006053051357</v>
       </c>
       <c r="AT7">
-        <v>97.80048258484121</v>
+        <v>64.63693800013465</v>
       </c>
       <c r="AU7">
-        <v>85.25062908765818</v>
+        <v>79.05568189787084</v>
+      </c>
+      <c r="AV7">
+        <v>40.61870337624701</v>
+      </c>
+      <c r="AW7">
+        <v>145.8307324734625</v>
       </c>
       <c r="AX7">
-        <v>61.37394832239731</v>
+        <v>137.3878930736738</v>
+      </c>
+      <c r="AY7">
+        <v>132.0914718172947</v>
+      </c>
+      <c r="AZ7">
+        <v>113.2828479895832</v>
+      </c>
+      <c r="BA7">
+        <v>144.0125354670096</v>
       </c>
       <c r="BB7">
-        <v>86.9878779028442</v>
+        <v>105.3346057603788</v>
       </c>
       <c r="BC7">
-        <v>77.26839957019659</v>
+        <v>101.5274394146594</v>
+      </c>
+      <c r="BD7">
+        <v>98.23226959730478</v>
+      </c>
+      <c r="BE7">
+        <v>117.4151314450967</v>
+      </c>
+      <c r="BF7">
+        <v>118.8369310036369</v>
+      </c>
+      <c r="BG7">
+        <v>105.0566087484531</v>
+      </c>
+      <c r="BH7">
+        <v>119.3192463361197</v>
       </c>
       <c r="BI7">
-        <v>110.6408969915884</v>
+        <v>99.12077549972312</v>
       </c>
       <c r="BJ7">
-        <v>101.9993972920733</v>
+        <v>100.3657406017265</v>
       </c>
       <c r="BK7">
-        <v>100.7892454481362</v>
+        <v>119.9983086894096</v>
+      </c>
+      <c r="BL7">
+        <v>118.930238303372</v>
+      </c>
+      <c r="BM7">
+        <v>99.95674644709614</v>
+      </c>
+      <c r="BN7">
+        <v>108.2985971920608</v>
+      </c>
+      <c r="BO7">
+        <v>115.387471971359</v>
       </c>
       <c r="BP7">
-        <v>111.6601732722219</v>
+        <v>110.9970151171517</v>
+      </c>
+      <c r="BQ7">
+        <v>88.49420712560402</v>
       </c>
       <c r="BR7">
-        <v>97.52434208555609</v>
-      </c>
-      <c r="BS7">
-        <v>120.6531239635446</v>
+        <v>118.0789505664709</v>
+      </c>
+      <c r="BT7">
+        <v>92.91121713241888</v>
       </c>
       <c r="BU7">
-        <v>92.67647455749984</v>
+        <v>77.60107855646848</v>
       </c>
       <c r="BV7">
-        <v>144.3609911583287</v>
+        <v>101.7462229129144</v>
+      </c>
+      <c r="BW7">
+        <v>98.13151107300671</v>
+      </c>
+      <c r="BX7">
+        <v>100.2039784036514</v>
+      </c>
+      <c r="BY7">
+        <v>92.40212574238279</v>
+      </c>
+      <c r="BZ7">
+        <v>74.55032973683448</v>
+      </c>
+      <c r="CA7">
+        <v>126.0694060159917</v>
+      </c>
+      <c r="CB7">
+        <v>52.5150860044324</v>
+      </c>
+      <c r="CC7">
+        <v>37.65088132665614</v>
+      </c>
+      <c r="CD7">
+        <v>45.16943638429111</v>
+      </c>
+      <c r="CE7">
+        <v>57.64840787090184</v>
       </c>
       <c r="CF7">
-        <v>49.91828630941153</v>
+        <v>31.27368460713094</v>
       </c>
       <c r="CG7">
-        <v>150.0052332491825</v>
+        <v>56.97966649715488</v>
       </c>
       <c r="CH7">
-        <v>126.1034685968355</v>
+        <v>102.8837175176739</v>
+      </c>
+      <c r="CI7">
+        <v>134.6389060237274</v>
+      </c>
+      <c r="CK7">
+        <v>46.55762160787459</v>
+      </c>
+      <c r="CL7">
+        <v>63.26380117264291</v>
+      </c>
+      <c r="CM7">
+        <v>42.14243044907568</v>
+      </c>
+      <c r="CN7">
+        <v>57.44005662917829</v>
+      </c>
+      <c r="CO7">
+        <v>90.6322116100966</v>
+      </c>
+      <c r="CP7">
+        <v>58.73823114996456</v>
+      </c>
+      <c r="CQ7">
+        <v>25.91316422931829</v>
+      </c>
+      <c r="CR7">
+        <v>112.5508952180562</v>
+      </c>
+      <c r="CS7">
+        <v>79.21988758632074</v>
+      </c>
+      <c r="CT7">
+        <v>77.63438740385426</v>
+      </c>
+      <c r="CU7">
+        <v>97.45555755127702</v>
+      </c>
+      <c r="CV7">
+        <v>123.3221965283435</v>
       </c>
     </row>
   </sheetData>
